--- a/Excel_reports/Data quality.xlsx
+++ b/Excel_reports/Data quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studia\Test_project\DE---Project\Excel_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C3925-4382-42B7-B1F2-7F177DDDE069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E239E8-9428-418D-B047-FD845F87521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="20655" windowHeight="20985" activeTab="2" xr2:uid="{A694402A-B448-426E-9E2E-81880120A89A}"/>
   </bookViews>
